--- a/Ingredients.xlsx
+++ b/Ingredients.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmman\git\Recipe_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506A2FA-E4ED-46E4-853C-8F13D2A03BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEA7FE-3C73-477B-A538-9451BE996FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFV" sheetId="5" r:id="rId1"/>
     <sheet name="LCHF" sheetId="6" r:id="rId2"/>
     <sheet name="Allergies" sheetId="7" r:id="rId3"/>
+    <sheet name="Food_Category" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="286">
   <si>
     <t>LFV_FullVegan_Eliminate</t>
   </si>
@@ -751,6 +752,135 @@
   </si>
   <si>
     <t>Seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodcategory </t>
+  </si>
+  <si>
+    <t>cuisinecategory</t>
+  </si>
+  <si>
+    <t>recipecategory</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Eggitarian</t>
+  </si>
+  <si>
+    <t>Non-veg</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>South Indian</t>
+  </si>
+  <si>
+    <t>Rajasthani</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>orissa</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Maharashtrian</t>
+  </si>
+  <si>
+    <t>Andhra</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Goan</t>
+  </si>
+  <si>
+    <t>Kashmiri</t>
+  </si>
+  <si>
+    <t>Himachali</t>
+  </si>
+  <si>
+    <t>Tamil nadu</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Sindhi</t>
+  </si>
+  <si>
+    <t>Chhattisgarhi</t>
+  </si>
+  <si>
+    <t>Madhya pradesh</t>
+  </si>
+  <si>
+    <t>Assamese</t>
+  </si>
+  <si>
+    <t>Manipuri</t>
+  </si>
+  <si>
+    <t>Tripuri</t>
+  </si>
+  <si>
+    <t>Sikkimese</t>
+  </si>
+  <si>
+    <t>Mizo</t>
+  </si>
+  <si>
+    <t>Arunachali</t>
+  </si>
+  <si>
+    <t>uttarakhand</t>
+  </si>
+  <si>
+    <t>Haryanvi</t>
+  </si>
+  <si>
+    <t>Awadhi</t>
+  </si>
+  <si>
+    <t>Bihari</t>
+  </si>
+  <si>
+    <t>Uttar pradesh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>North Indian</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>Dinner</t>
   </si>
 </sst>
 </file>
@@ -810,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -848,23 +978,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50579E66-7B1E-40F2-8BB6-D390A5F734E5}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EBCD2A-CD24-4DB8-BDBA-7AC67F265BF4}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2746,4 +2909,217 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54DEA3-031C-4107-9637-F8D8F08D6C86}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ingredients.xlsx
+++ b/Ingredients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmman\git\Recipe_Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbi\git\Recipe_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEA7FE-3C73-477B-A538-9451BE996FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E82DEED-4AB8-410D-AA25-7E42657F7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFV" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="287">
   <si>
     <t>LFV_FullVegan_Eliminate</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>Dinner</t>
+  </si>
+  <si>
+    <t>Chana</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1023,11 +1026,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1248,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1278,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2926,10 +2928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C1" t="s">
@@ -2937,185 +2939,184 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>281</v>
       </c>
     </row>

--- a/Ingredients.xlsx
+++ b/Ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbi\git\Recipe_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E82DEED-4AB8-410D-AA25-7E42657F7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1FB26-6972-4FA4-B944-941491F56CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,7 +883,7 @@
     <t>Dinner</t>
   </si>
   <si>
-    <t>Chana</t>
+    <t>chana</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ingredients.xlsx
+++ b/Ingredients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbi\git\Recipe_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1FB26-6972-4FA4-B944-941491F56CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF2D9F-F6C1-4107-8DE0-12CA31E6382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1800" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFV" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="286">
   <si>
     <t>LFV_FullVegan_Eliminate</t>
   </si>
@@ -881,9 +881,6 @@
   </si>
   <si>
     <t>Dinner</t>
-  </si>
-  <si>
-    <t>chana</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>

--- a/Ingredients.xlsx
+++ b/Ingredients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbi\git\Recipe_Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmman\git\Recipe_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1FB26-6972-4FA4-B944-941491F56CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8BC63-9968-43DE-BDEB-CDA61F4B94DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1530" windowWidth="15375" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFV" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="286">
   <si>
     <t>LFV_FullVegan_Eliminate</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>strawberry</t>
-  </si>
-  <si>
-    <t>Ham</t>
   </si>
   <si>
     <t>sausage</t>
@@ -1247,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50579E66-7B1E-40F2-8BB6-D390A5F734E5}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2184,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA375300-5509-4DA7-AB2F-F23FF3A251C0}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -2221,54 +2218,54 @@
         <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,18 +2276,18 @@
         <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,7 +2308,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>181</v>
@@ -2327,7 +2324,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>183</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>184</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>185</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>186</v>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>187</v>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>150</v>
@@ -2375,7 +2372,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>152</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>154</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>155</v>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>156</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>157</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>158</v>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>160</v>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>188</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>162</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>163</v>
@@ -2463,7 +2460,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>164</v>
@@ -2471,7 +2468,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>189</v>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>190</v>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>191</v>
@@ -2495,31 +2492,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="1"/>
     </row>
@@ -2537,19 +2534,19 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1"/>
     </row>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,12 +2814,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2845,27 +2842,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,12 +2897,12 @@
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2929,195 +2926,195 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
